--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-248189-top-by-races-count.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-248189-top-by-races-count.xlsx
@@ -50,7 +50,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>19 ч. 15 мин. 2 сек.</t>
+    <t>19 ч. 15 мин. 02 сек.</t>
   </si>
   <si>
     <t>2</t>
@@ -86,7 +86,7 @@
     <t>Zikting</t>
   </si>
   <si>
-    <t>0 ч. 27 мин. 4 сек.</t>
+    <t>0 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>6</t>
@@ -113,7 +113,7 @@
     <t>merely</t>
   </si>
   <si>
-    <t>0 ч. 9 мин. 18 сек.</t>
+    <t>0 ч. 09 мин. 18 сек.</t>
   </si>
 </sst>
 </file>
